--- a/dados/vetaacessorios.xlsx
+++ b/dados/vetaacessorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1162748365#searchVariation=MLB22569833&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=adae86be-4bab-4517-8b4b-023229ed3210</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1162748365#searchVariation=MLB22569833&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=e9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860735858-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dadae86be-4bab-4517-8b4b-023229ed3210</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3860735858-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1162748365#searchVariation=MLB28961390&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=adae86be-4bab-4517-8b4b-023229ed3210</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1162748365#searchVariation=MLB28961390&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=e9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
         </is>
       </c>
     </row>
@@ -546,17 +578,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037029276-controle-jfa-acqua-k1200-longa-distancia-completo-top-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dadae86be-4bab-4517-8b4b-023229ed3210</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3037029276-controle-jfa-acqua-k1200-longa-distancia-completo-top-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
         </is>
       </c>
     </row>
@@ -571,17 +609,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927266757-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dadae86be-4bab-4517-8b4b-023229ed3210</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2927266757-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
         </is>
       </c>
     </row>
@@ -596,17 +640,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860722412-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dadae86be-4bab-4517-8b4b-023229ed3210</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3860722412-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
         </is>
       </c>
     </row>
@@ -621,17 +671,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037065409-controle-remoto-jfa-longa-distancia-k1200-acqua-completo-top-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dadae86be-4bab-4517-8b4b-023229ed3210</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3037065409-controle-remoto-jfa-longa-distancia-k1200-acqua-completo-top-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
         </is>
       </c>
     </row>
@@ -646,17 +702,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037013938-controle-longa-distancia-jfa-acqua-1200-mts-preto-completo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dadae86be-4bab-4517-8b4b-023229ed3210</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3037013938-controle-longa-distancia-jfa-acqua-1200-mts-preto-completo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
         </is>
       </c>
     </row>
@@ -671,17 +733,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2731131087-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dadae86be-4bab-4517-8b4b-023229ed3210</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2731131087-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
         </is>
       </c>
     </row>

--- a/dados/vetaacessorios.xlsx
+++ b/dados/vetaacessorios.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>433</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -501,23 +501,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1162748365#searchVariation=MLB22569833&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=e9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1162748365#searchVariation=MLB22569833&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C3" t="inlineStr">
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67.5</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -532,23 +532,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860735858-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1162748365#searchVariation=MLB28961390&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="C4" t="inlineStr">
+          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C4" t="n">
+        <v>77.90000000000001</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1162748365#searchVariation=MLB28961390&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=e9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3860735858-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
         </is>
       </c>
     </row>
@@ -573,13 +573,13 @@
           <t>Controle Jfa Acqua K1200 Longa Distancia Completo Top</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>68.25</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037029276-controle-jfa-acqua-k1200-longa-distancia-completo-top-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3037029276-controle-jfa-acqua-k1200-longa-distancia-completo-top-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
         </is>
       </c>
     </row>
@@ -604,13 +604,13 @@
           <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Preto</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>67.77</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927266757-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927266757-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
         </is>
       </c>
     </row>
@@ -635,13 +635,13 @@
           <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>78.90000000000001</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860722412-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3860722412-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
         </is>
       </c>
     </row>
@@ -666,13 +666,13 @@
           <t>Controle Remoto Jfa Longa Distancia K1200 Acqua Completo Top</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>67.5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -687,23 +687,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037065409-controle-remoto-jfa-longa-distancia-k1200-acqua-completo-top-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3037065409-controle-remoto-jfa-longa-distancia-k1200-acqua-completo-top-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua  1200 Mts  Preto Completo</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>109.9</v>
-      </c>
-      <c r="C9" t="inlineStr">
+          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C9" t="n">
+        <v>110</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -718,23 +718,23 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037013938-controle-longa-distancia-jfa-acqua-1200-mts-preto-completo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2731131087-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>110</v>
-      </c>
-      <c r="C10" t="inlineStr">
+          <t>Controle Longa Distancia Jfa Acqua  1200 Mts  Preto Completo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C10" t="n">
+        <v>109.9</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2731131087-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De9f1179c-3b71-4335-9b54-1ee3b9a83519</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3037013938-controle-longa-distancia-jfa-acqua-1200-mts-preto-completo-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
         </is>
       </c>
     </row>

--- a/dados/vetaacessorios.xlsx
+++ b/dados/vetaacessorios.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1162748365#searchVariation=MLB22569833&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1162748365#searchVariation=MLB22569833&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=2f791799-717a-4793-a62f-6d1298263361</t>
         </is>
       </c>
     </row>
@@ -513,13 +513,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>67.5</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -532,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1162748365#searchVariation=MLB28961390&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1162748365#searchVariation=MLB28961390&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=2f791799-717a-4793-a62f-6d1298263361</t>
         </is>
       </c>
     </row>
@@ -548,7 +552,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>77.90000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -563,25 +567,29 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860735858-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3860722412-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Controle Jfa Acqua K1200 Longa Distancia Completo Top</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Preto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68.25</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>67.77</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -594,25 +602,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037029276-controle-jfa-acqua-k1200-longa-distancia-completo-top-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927266757-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Preto</t>
+          <t>Controle Remoto Jfa Longa Distancia K1200 Acqua Completo Top</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>67.77</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>67.5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -625,25 +637,29 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927266757-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3037065409-controle-remoto-jfa-longa-distancia-k1200-acqua-completo-top-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
+          <t>Controle Jfa Acqua K1200 Longa Distancia Completo Top</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>68.25</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -656,14 +672,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860722412-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3037029276-controle-jfa-acqua-k1200-longa-distancia-completo-top-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Longa Distancia K1200 Acqua Completo Top</t>
+          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -672,7 +688,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>67.5</v>
+        <v>110</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -687,25 +703,29 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037065409-controle-remoto-jfa-longa-distancia-k1200-acqua-completo-top-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2731131087-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
+          <t>Controle Longa Distancia Jfa Acqua  1200 Mts  Preto Completo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>110</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>109.9</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -718,14 +738,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2731131087-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3037013938-controle-longa-distancia-jfa-acqua-1200-mts-preto-completo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua  1200 Mts  Preto Completo</t>
+          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -734,7 +754,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>109.9</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -749,7 +769,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037013938-controle-longa-distancia-jfa-acqua-1200-mts-preto-completo-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D152e5006-9c8a-437a-94d7-8aa5e5e6b1c4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3860735858-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
         </is>
       </c>
     </row>

--- a/dados/vetaacessorios.xlsx
+++ b/dados/vetaacessorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,303 +483,348 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>433</v>
+          <t>vetaacessorios</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1162748365#searchVariation=MLB22569833&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=2f791799-717a-4793-a62f-6d1298263361</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1162748365#searchVariation=MLB28961390&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0e739c8-da54-412c-bb96-855c84702b37</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>vetaacessorios</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Controle Jfa Acqua K1200 Longa Distancia Completo Top</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>67.5</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1162748365#searchVariation=MLB28961390&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=2f791799-717a-4793-a62f-6d1298263361</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3037029276-controle-jfa-acqua-k1200-longa-distancia-completo-top-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>vetaacessorios</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860722412-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3860722412-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vetaacessorios</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Preto</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>67.77</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927266757-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2927266757-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>vetaacessorios</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Controle Remoto Jfa Longa Distancia K1200 Acqua Completo Top</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>75</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037065409-controle-remoto-jfa-longa-distancia-k1200-acqua-completo-top-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3037065409-controle-remoto-jfa-longa-distancia-k1200-acqua-completo-top-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Jfa Acqua K1200 Longa Distancia Completo Top</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>vetaacessorios</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Acqua  1200 Mts  Preto Completo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>68.25</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037029276-controle-jfa-acqua-k1200-longa-distancia-completo-top-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3037013938-controle-longa-distancia-jfa-acqua-1200-mts-preto-completo-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>vetaacessorios</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>110</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2731131087-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2731131087-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua  1200 Mts  Preto Completo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>109.9</v>
+          <t>vetaacessorios</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037013938-controle-longa-distancia-jfa-acqua-1200-mts-preto-completo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860735858-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2f791799-717a-4793-a62f-6d1298263361</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3860735858-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
         </is>
       </c>
     </row>

--- a/dados/vetaacessorios.xlsx
+++ b/dados/vetaacessorios.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,25 +493,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -521,14 +517,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1162748365#searchVariation=MLB28961390&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f0e739c8-da54-412c-bb96-855c84702b37</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3860735858-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,7 +534,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Jfa Acqua K1200 Longa Distancia Completo Top</t>
+          <t>Controle Longa Distancia Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -547,7 +543,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>67.5</v>
+        <v>75</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -566,14 +562,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037029276-controle-jfa-acqua-k1200-longa-distancia-completo-top-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1162748365#searchVariation=MLB28961390&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=fed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,18 +579,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Preto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -607,14 +607,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860722412-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927266757-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Preto</t>
+          <t>Controle Longa Distancia Jfa Acqua  1200 Mts  Preto Completo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -633,11 +633,11 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>77.90000000000001</v>
+        <v>109.9</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -652,14 +652,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927266757-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3037013938-controle-longa-distancia-jfa-acqua-1200-mts-preto-completo-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -697,14 +697,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037065409-controle-remoto-jfa-longa-distancia-k1200-acqua-completo-top-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3037065409-controle-remoto-jfa-longa-distancia-k1200-acqua-completo-top-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,22 +714,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua  1200 Mts  Preto Completo</t>
+          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>109.9</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -742,14 +738,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037013938-controle-longa-distancia-jfa-acqua-1200-mts-preto-completo-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3860722412-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,21 +755,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
+          <t>Controle Jfa Acqua K1200 Longa Distancia Completo Top</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>110</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>67.5</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -783,14 +783,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2731131087-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3037029276-controle-jfa-acqua-k1200-longa-distancia-completo-top-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>78.90000000000001</v>
+        <v>110</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860735858-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df0e739c8-da54-412c-bb96-855c84702b37</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2731131087-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
         </is>
       </c>
     </row>

--- a/dados/vetaacessorios.xlsx
+++ b/dados/vetaacessorios.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,21 +493,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
+          <t>Controle Jfa Acqua K1200 Longa Distancia Completo Top</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>67.5</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -517,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860735858-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3037029276-controle-jfa-acqua-k1200-longa-distancia-completo-top-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4f6a58-1399-44f5-bb55-d6849880bb8b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -543,7 +547,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>63.1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -562,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1162748365#searchVariation=MLB28961390&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=fed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-acqua-1200-resistente-a-agua/p/MLB28961390?pdp_filters=seller_id:1162748365#wid=MLB3714128439&amp;sid=search&amp;searchVariation=MLB28961390&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=5e4f6a58-1399-44f5-bb55-d6849880bb8b</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -579,7 +583,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Preto</t>
+          <t>Controle Remoto Jfa Longa Distancia K1200 Acqua Completo Top</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -588,7 +592,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>77.90000000000001</v>
+        <v>63.1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -607,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2927266757-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3037065409-controle-remoto-jfa-longa-distancia-k1200-acqua-completo-top-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4f6a58-1399-44f5-bb55-d6849880bb8b</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,25 +628,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Acqua  1200 Mts  Preto Completo</t>
+          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>109.9</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -652,14 +652,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037013938-controle-longa-distancia-jfa-acqua-1200-mts-preto-completo-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3860735858-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4f6a58-1399-44f5-bb55-d6849880bb8b</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Longa Distancia K1200 Acqua Completo Top</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Preto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -697,14 +697,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037065409-controle-remoto-jfa-longa-distancia-k1200-acqua-completo-top-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2927266757-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4f6a58-1399-44f5-bb55-d6849880bb8b</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,18 +714,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
+          <t>Controle Longa Distancia Jfa Acqua  1200 Mts  Preto Completo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>79.90000000000001</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -738,14 +742,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860722412-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3037013938-controle-longa-distancia-jfa-acqua-1200-mts-preto-completo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4f6a58-1399-44f5-bb55-d6849880bb8b</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -755,25 +759,21 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Controle Jfa Acqua K1200 Longa Distancia Completo Top</t>
+          <t>Controle Longa Distância Jfa Redline 1200 Metros Vermelho</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -783,14 +783,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3037029276-controle-jfa-acqua-k1200-longa-distancia-completo-top-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2731131087-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4f6a58-1399-44f5-bb55-d6849880bb8b</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>110</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2731131087-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfed9db4d-0f6c-489d-ab21-d0a367af8d10</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3860722412-controle-longa-distncia-jfa-redline-1200-metros-vermelho-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D5e4f6a58-1399-44f5-bb55-d6849880bb8b</t>
         </is>
       </c>
     </row>
